--- a/客户管理系统/设计文档/客户关系管理系统数据库设计说明书.xlsx
+++ b/客户管理系统/设计文档/客户关系管理系统数据库设计说明书.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenrui/Project/2206A/documents/客户管理系统/设计文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA42341-31F1-7D4E-BD04-A0843E232352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A835E-3B23-2A4A-8E3C-21ED35B18055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="13480" activeTab="2" xr2:uid="{F649B970-2D78-4D49-8302-DBE090FD8AAB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="13480" activeTab="3" xr2:uid="{F649B970-2D78-4D49-8302-DBE090FD8AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="总揽" sheetId="1" r:id="rId1"/>
     <sheet name="用户管理" sheetId="2" r:id="rId2"/>
     <sheet name="营销管理" sheetId="7" r:id="rId3"/>
+    <sheet name="客户管理" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
   <si>
     <t>数据库名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,9 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户表主键</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,49 +78,10 @@
   </si>
   <si>
     <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>userCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>用户角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1)</t>
-  </si>
-  <si>
-    <t>1.系统管理员;
-2.图书管理员;
-3.学生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,6 +266,154 @@
   </si>
   <si>
     <t>用户表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的格式为2023-06-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售机会id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售机会表的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售机会表的销售机会编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户满意度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信用度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照注册号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年营业额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地税登记号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国税登记号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交往记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,12 +571,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +588,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -822,14 +932,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1"/>
@@ -860,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C563C-2B7B-EB4B-9FBE-313684A951C6}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="A5" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -875,7 +985,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -883,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -904,132 +1014,92 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="51">
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>26</v>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1043,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA0722D-8A54-6E4F-9861-BDF859F258DF}">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A6" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1061,14 +1131,15 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="3" t="s">
@@ -1088,198 +1159,681 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="13" t="s">
-        <v>53</v>
+      <c r="B5" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="102">
-      <c r="B6" s="13" t="s">
-        <v>39</v>
+    <row r="6" spans="1:6" ht="51">
+      <c r="B6" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="14" t="s">
-        <v>40</v>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="13" t="s">
-        <v>47</v>
+      <c r="B14" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="15" t="s">
-        <v>66</v>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="68">
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="6" t="s">
-        <v>68</v>
+      <c r="F17" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF99F670-1144-5C41-BD77-E2C3BB902024}">
+  <dimension ref="A2:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="B6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F17" location="用户管理!B5" display="用户表id" xr:uid="{5A6641CD-BE8D-0B46-89AF-3C91AB7B65FE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>